--- a/examples/sources/data/unsolved/to_schedule/2018-12-27.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-27.xlsx
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N162">
         <v>1</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N164">
         <v>1</v>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N165">
         <v>1</v>
@@ -7969,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="N167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O167" s="2">
         <v>43461</v>
@@ -8092,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="N170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O170" s="2">
         <v>43461</v>
@@ -8133,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="N171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O171" s="2">
         <v>43461</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N172">
         <v>1</v>
@@ -8215,7 +8215,7 @@
         <v>1</v>
       </c>
       <c r="N173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O173" s="2">
         <v>43461</v>
